--- a/premise/data/additional_inventories/lci-steel.xlsx
+++ b/premise/data/additional_inventories/lci-steel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4457F13E-A31D-164A-BBF0-2AE9A6279459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DF5DE4-7DD7-A745-A0DF-E4CC9E149AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="920" windowWidth="28160" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,7 +439,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -497,14 +497,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -811,7 +810,7 @@
   <dimension ref="A1:L212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -843,7 +842,7 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1080,7 +1079,7 @@
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>1.3333000000000001E-11</v>
       </c>
       <c r="C15" t="s">
@@ -1196,7 +1195,7 @@
       <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1452,7 +1451,7 @@
       <c r="A33" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="C33" t="s">
@@ -1475,7 +1474,7 @@
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>1.3333000000000001E-11</v>
       </c>
       <c r="C34" t="s">
@@ -1519,10 +1518,10 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <f>B17-B37</f>
         <v>0.25665566000000006</v>
       </c>
@@ -1634,7 +1633,7 @@
       <c r="A44" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1855,7 +1854,7 @@
       <c r="A53" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>1.3333000000000001E-11</v>
       </c>
       <c r="C53" t="s">
@@ -1943,7 +1942,7 @@
       <c r="A58" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2188,7 +2187,7 @@
       <c r="A69" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="3">
         <v>1.3333000000000001E-11</v>
       </c>
       <c r="C69" t="s">
@@ -2208,10 +2207,10 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="5">
         <f>AVERAGE(1.6,1.8)-B71</f>
         <v>1.4500000000000002</v>
       </c>
@@ -2233,7 +2232,7 @@
       <c r="I70">
         <v>5</v>
       </c>
-      <c r="J70" s="6">
+      <c r="J70" s="5">
         <f>B70</f>
         <v>1.4500000000000002</v>
       </c>
@@ -2293,7 +2292,7 @@
       <c r="A74" t="s">
         <v>7</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2506,7 +2505,7 @@
       <c r="A85" t="s">
         <v>95</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="C85" t="s">
@@ -2526,10 +2525,10 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="5">
         <f>AVERAGE(0.15,0.2)-B88</f>
         <v>0.12499999999999999</v>
       </c>
@@ -2551,7 +2550,7 @@
       <c r="I86">
         <v>5</v>
       </c>
-      <c r="J86" s="6">
+      <c r="J86" s="5">
         <f>B86</f>
         <v>0.12499999999999999</v>
       </c>
@@ -2568,7 +2567,7 @@
       <c r="A87" t="s">
         <v>36</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="3">
         <v>1.3333000000000001E-11</v>
       </c>
       <c r="C87" t="s">
@@ -2654,7 +2653,7 @@
       <c r="A92" t="s">
         <v>7</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2671,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -2744,7 +2743,7 @@
       </c>
       <c r="G98" t="str">
         <f>B94</f>
-        <v>steel, low-alloyed</v>
+        <v>pig iron</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -2905,7 +2904,7 @@
       <c r="A106" t="s">
         <v>7</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3097,7 +3096,7 @@
       <c r="A116" t="s">
         <v>36</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="3">
         <v>1.3333000000000001E-11</v>
       </c>
       <c r="C116" t="s">
@@ -3177,7 +3176,7 @@
       <c r="A121" t="s">
         <v>7</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3194,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -3267,7 +3266,7 @@
       </c>
       <c r="G127" t="str">
         <f>B123</f>
-        <v>steel, low-alloyed</v>
+        <v>pig iron</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -3417,7 +3416,7 @@
       <c r="A133" t="s">
         <v>95</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="C133" t="s">
@@ -3437,10 +3436,10 @@
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B134" s="6">
+      <c r="B134" s="5">
         <v>1.45</v>
       </c>
       <c r="C134" t="s">
@@ -3458,7 +3457,7 @@
       <c r="H134" t="s">
         <v>89</v>
       </c>
-      <c r="J134" s="6"/>
+      <c r="J134" s="5"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
@@ -3498,7 +3497,7 @@
       <c r="A138" t="s">
         <v>7</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3655,7 +3654,7 @@
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B148">
@@ -3678,7 +3677,7 @@
       <c r="A149" t="s">
         <v>36</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149" s="3">
         <v>1.3333000000000001E-11</v>
       </c>
       <c r="C149" t="s">
@@ -3752,7 +3751,7 @@
       <c r="A154" t="s">
         <v>7</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3769,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="B156" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
@@ -3842,7 +3841,7 @@
       </c>
       <c r="G160" t="str">
         <f>B156</f>
-        <v>steel, low-alloyed</v>
+        <v>pig iron</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
@@ -3962,43 +3961,43 @@
       <c r="A164" t="s">
         <v>46</v>
       </c>
-      <c r="B164" s="7">
+      <c r="B164" s="6">
         <v>0.5</v>
       </c>
-      <c r="C164" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7" t="s">
+      <c r="C164" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F164" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="7" t="s">
+      <c r="F164" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A165" s="7" t="s">
+      <c r="A165" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B165" s="7">
+      <c r="B165" s="6">
         <v>0.9</v>
       </c>
-      <c r="C165" s="7" t="s">
+      <c r="C165" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D165" s="7" t="s">
+      <c r="D165" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E165" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F165" s="7" t="s">
+      <c r="E165" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G165" s="7" t="s">
+      <c r="G165" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4124,7 +4123,7 @@
         <v>10</v>
       </c>
       <c r="G175" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
@@ -4154,20 +4153,20 @@
       <c r="A177" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="7">
+      <c r="B177" s="6">
         <v>0.3</v>
       </c>
-      <c r="C177" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D177" s="7"/>
-      <c r="E177" s="7" t="s">
+      <c r="C177" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F177" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="7" t="s">
+      <c r="F177" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4175,7 +4174,7 @@
       <c r="A178" t="s">
         <v>36</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178" s="3">
         <v>1.3333000000000001E-11</v>
       </c>
       <c r="C178" t="s">
@@ -4192,25 +4191,25 @@
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A179" s="7" t="s">
+      <c r="A179" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B179" s="7">
+      <c r="B179" s="6">
         <v>0.15</v>
       </c>
-      <c r="C179" s="7" t="s">
+      <c r="C179" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D179" s="7" t="s">
+      <c r="D179" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E179" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F179" s="7" t="s">
+      <c r="E179" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G179" s="7" t="s">
+      <c r="G179" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4243,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="B184" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
@@ -4316,7 +4315,7 @@
       </c>
       <c r="G188" t="str">
         <f>B184</f>
-        <v>steel, low-alloyed</v>
+        <v>pig iron</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
@@ -4436,20 +4435,20 @@
       <c r="A192" t="s">
         <v>46</v>
       </c>
-      <c r="B192" s="7">
+      <c r="B192" s="6">
         <v>0.5</v>
       </c>
-      <c r="C192" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D192" s="7"/>
-      <c r="E192" s="7" t="s">
+      <c r="C192" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F192" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="7" t="s">
+      <c r="F192" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4480,7 +4479,7 @@
       <c r="A194" t="s">
         <v>95</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B194" s="3">
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="C194" t="s">
@@ -4500,10 +4499,10 @@
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A195" s="5" t="s">
+      <c r="A195" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B195" s="6">
+      <c r="B195" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="C195" t="s">
@@ -4521,28 +4520,28 @@
       <c r="H195" t="s">
         <v>89</v>
       </c>
-      <c r="J195" s="6"/>
+      <c r="J195" s="5"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A196" s="7" t="s">
+      <c r="A196" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B196" s="7">
+      <c r="B196" s="6">
         <v>0.1</v>
       </c>
-      <c r="C196" s="7" t="s">
+      <c r="C196" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D196" s="7" t="s">
+      <c r="D196" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E196" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F196" s="7" t="s">
+      <c r="E196" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F196" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G196" s="7" t="s">
+      <c r="G196" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4669,7 +4668,7 @@
         <v>10</v>
       </c>
       <c r="G206" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
@@ -4699,28 +4698,28 @@
       <c r="A208" t="s">
         <v>46</v>
       </c>
-      <c r="B208" s="7">
+      <c r="B208" s="6">
         <v>0.3</v>
       </c>
-      <c r="C208" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D208" s="7"/>
-      <c r="E208" s="7" t="s">
+      <c r="C208" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F208" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="7" t="s">
+      <c r="F208" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A209" s="5" t="s">
+      <c r="A209" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B209" s="6">
+      <c r="B209" s="5">
         <v>0.125</v>
       </c>
       <c r="C209" t="s">
@@ -4738,13 +4737,13 @@
       <c r="H209" t="s">
         <v>89</v>
       </c>
-      <c r="J209" s="6"/>
+      <c r="J209" s="5"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>36</v>
       </c>
-      <c r="B210" s="4">
+      <c r="B210" s="3">
         <v>1.3333000000000001E-11</v>
       </c>
       <c r="C210" t="s">
@@ -4761,48 +4760,48 @@
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A211" s="7" t="s">
+      <c r="A211" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B211" s="7">
+      <c r="B211" s="6">
         <v>0.05</v>
       </c>
-      <c r="C211" s="7" t="s">
+      <c r="C211" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D211" s="7" t="s">
+      <c r="D211" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E211" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F211" s="7" t="s">
+      <c r="E211" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F211" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G211" s="7" t="s">
+      <c r="G211" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A212" s="7" t="s">
+      <c r="A212" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B212" s="7">
+      <c r="B212" s="6">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="C212" s="7" t="s">
+      <c r="C212" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D212" s="7" t="s">
+      <c r="D212" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E212" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F212" s="7" t="s">
+      <c r="E212" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F212" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G212" s="7" t="s">
+      <c r="G212" s="6" t="s">
         <v>49</v>
       </c>
     </row>

--- a/premise/data/additional_inventories/lci-steel.xlsx
+++ b/premise/data/additional_inventories/lci-steel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DF5DE4-7DD7-A745-A0DF-E4CC9E149AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA909723-C373-2D42-8A46-00CF28A849C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="920" windowWidth="28160" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34620" yWindow="-320" windowWidth="28160" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="M114" sqref="M114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1005,12 +1005,12 @@
         <v>0.16636200000000001</v>
       </c>
       <c r="K12">
-        <f>199/1000</f>
-        <v>0.19900000000000001</v>
+        <f>199/1000*0.714</f>
+        <v>0.14208599999999999</v>
       </c>
       <c r="L12">
-        <f>267/1000</f>
-        <v>0.26700000000000002</v>
+        <f>267/1000*0.714</f>
+        <v>0.190638</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1154,11 +1154,11 @@
       </c>
       <c r="K17">
         <f>(0.28*K11)+(0.43*K12)</f>
-        <v>0.47057000000000004</v>
+        <v>0.44609697999999998</v>
       </c>
       <c r="L17">
         <f>(0.28*L11)+(0.43*L12)</f>
-        <v>0.60005000000000008</v>
+        <v>0.56721434000000004</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1357,12 +1357,12 @@
         <v>0.16636200000000001</v>
       </c>
       <c r="K29">
-        <f>199/1000</f>
-        <v>0.19900000000000001</v>
+        <f>199/1000*0.714</f>
+        <v>0.14208599999999999</v>
       </c>
       <c r="L29">
-        <f>267/1000</f>
-        <v>0.26700000000000002</v>
+        <f>267/1000*0.714</f>
+        <v>0.190638</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3019,19 +3019,6 @@
       <c r="H113" t="s">
         <v>112</v>
       </c>
-      <c r="I113">
-        <v>5</v>
-      </c>
-      <c r="J113">
-        <f>B113</f>
-        <v>0.9</v>
-      </c>
-      <c r="K113">
-        <v>0.35</v>
-      </c>
-      <c r="L113">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
@@ -3054,19 +3041,6 @@
       </c>
       <c r="H114" t="s">
         <v>113</v>
-      </c>
-      <c r="I114">
-        <v>5</v>
-      </c>
-      <c r="J114">
-        <f>B114</f>
-        <v>0</v>
-      </c>
-      <c r="K114">
-        <v>0.9</v>
-      </c>
-      <c r="L114">
-        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-steel.xlsx
+++ b/premise/data/additional_inventories/lci-steel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294D36F3-3ABC-3C48-A1CA-D235B94E5479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FAB56F-AAA9-024E-A3C7-93409906E087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34360" yWindow="-920" windowWidth="31840" windowHeight="18880" tabRatio="900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34920" yWindow="-920" windowWidth="31840" windowHeight="18880" tabRatio="900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BF-BOF" sheetId="12" r:id="rId1"/>
@@ -2108,7 +2108,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2242,7 +2242,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent4" xfId="4" builtinId="42"/>
@@ -2538,7 +2537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAF21C3-016F-43C3-87A6-3C8A3FBB2FA9}">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="150" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A87" zoomScale="150" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
@@ -10236,8 +10235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DD26E1-AE00-4B06-B742-B5C53D307EB3}">
   <dimension ref="A1:R139"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R103" sqref="R103"/>
+    <sheetView tabSelected="1" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11664,8 +11663,8 @@
         <v>251</v>
       </c>
       <c r="B46" s="31">
-        <f>B45</f>
-        <v>7.5058671999999997E-4</v>
+        <f>B45*-1</f>
+        <v>-7.5058671999999997E-4</v>
       </c>
       <c r="C46" t="s">
         <v>271</v>
@@ -14446,8 +14445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F96966-D8FC-483F-8474-B4B3E2ED71E2}">
   <dimension ref="A1:R156"/>
   <sheetViews>
-    <sheetView zoomScale="111" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R120" sqref="R120"/>
+    <sheetView topLeftCell="A28" zoomScale="111" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15942,8 +15941,8 @@
         <v>251</v>
       </c>
       <c r="B48" s="31">
-        <f>B46</f>
-        <v>7.5058671999999997E-4</v>
+        <f>B46*-1</f>
+        <v>-7.5058671999999997E-4</v>
       </c>
       <c r="C48" t="s">
         <v>271</v>
@@ -22623,8 +22622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED1CDCB-72D2-4766-A9EC-D46EE950AD09}">
   <dimension ref="A1:S139"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A21" zoomScale="137" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23407,8 +23406,8 @@
         <v>251</v>
       </c>
       <c r="B37" s="31">
-        <f>B36</f>
-        <v>1.6999999999999999E-3</v>
+        <f>B36*-1</f>
+        <v>-1.6999999999999999E-3</v>
       </c>
       <c r="C37" t="s">
         <v>271</v>
@@ -23441,7 +23440,7 @@
       <c r="A40" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="67" t="s">
+      <c r="B40" s="25" t="s">
         <v>479</v>
       </c>
     </row>

--- a/premise/data/additional_inventories/lci-steel.xlsx
+++ b/premise/data/additional_inventories/lci-steel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54256BC1-04B2-444C-9014-76AF3325992B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBB2BFD-47BF-8243-963E-C3654FBEA17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" tabRatio="900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5630,7 +5630,7 @@
   <dimension ref="A1:R157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5905,7 +5905,7 @@
         <v>489</v>
       </c>
       <c r="B13" s="29">
-        <v>0</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>270</v>
@@ -10236,7 +10236,7 @@
   <dimension ref="A1:R139"/>
   <sheetViews>
     <sheetView zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10511,7 +10511,7 @@
         <v>489</v>
       </c>
       <c r="B13" s="29">
-        <v>0</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>270</v>
@@ -14446,7 +14446,7 @@
   <dimension ref="A1:R156"/>
   <sheetViews>
     <sheetView zoomScale="111" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14721,7 +14721,7 @@
         <v>489</v>
       </c>
       <c r="B13" s="29">
-        <v>0</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>270</v>

--- a/premise/data/additional_inventories/lci-steel.xlsx
+++ b/premise/data/additional_inventories/lci-steel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBB2BFD-47BF-8243-963E-C3654FBEA17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D46C92B-6196-9A47-96D6-E36A4FE91668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" tabRatio="900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8654" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8645" uniqueCount="490">
   <si>
     <t>Database</t>
   </si>
@@ -5629,8 +5629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BD29AF-C665-4316-B7B0-6CC676F383B3}">
   <dimension ref="A1:R157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5925,15 +5925,6 @@
       <c r="I13" t="s">
         <v>205</v>
       </c>
-      <c r="O13" t="s">
-        <v>397</v>
-      </c>
-      <c r="P13" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -10235,8 +10226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DD26E1-AE00-4B06-B742-B5C53D307EB3}">
   <dimension ref="A1:R139"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10531,15 +10522,6 @@
       <c r="I13" t="s">
         <v>205</v>
       </c>
-      <c r="O13" t="s">
-        <v>397</v>
-      </c>
-      <c r="P13" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="14" spans="1:17" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -14445,8 +14427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F96966-D8FC-483F-8474-B4B3E2ED71E2}">
   <dimension ref="A1:R156"/>
   <sheetViews>
-    <sheetView zoomScale="111" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="J1" zoomScale="111" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14740,15 +14722,6 @@
       </c>
       <c r="I13" t="s">
         <v>205</v>
-      </c>
-      <c r="O13" t="s">
-        <v>397</v>
-      </c>
-      <c r="P13" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
